--- a/Data/Transitions/19521954Translation.xlsx
+++ b/Data/Transitions/19521954Translation.xlsx
@@ -469,6 +469,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -667,9 +670,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
@@ -1372,7 +1372,7 @@
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 1.0, 889.0: 0.5748804429901837}</t>
+    <t>{785.0: 1.0, 889.0: 0.2574101205905556}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
@@ -1495,7 +1495,7 @@
     <t>{888.0: 1.0}</t>
   </si>
   <si>
-    <t>{889.0: 0.42511955700981624}</t>
+    <t>{889.0: 0.7425898794094444}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1786,7 +1786,7 @@
     <t>{768.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047503, 889.0: 0.2047145289952496}</t>
+    <t>{785.0: 0.685269395066832, 889.0: 0.31473060493316796}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -3855,29 +3855,29 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>563</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>154</v>
+        <v>563</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4009,29 +4009,29 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>564</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>168</v>
+        <v>564</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4163,29 +4163,29 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>565</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>565</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4196,7 +4196,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4207,29 +4207,29 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>566</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>566</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4240,29 +4240,29 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>567</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>189</v>
+        <v>567</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4372,29 +4372,29 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>568</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>201</v>
+        <v>568</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4405,29 +4405,29 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>569</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>204</v>
+        <v>569</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4449,7 +4449,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4482,29 +4482,29 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>570</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>211</v>
+        <v>570</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
